--- a/va_facility_data_2025-02-20/Santa Ana VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Santa%20Ana%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Santa Ana VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Santa%20Ana%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R413ca29a64314ce999dac894d3d393bc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R11b6fdefb872462192b18e03256e6722"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8e309711533844bb9c646037e49a76c6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7c847b0f1b0c48a3805250fc5be45b25"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd477b37f4c774e288938ec3862e516e6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9a04f5c5744c46fe8e7f52d38e17905e"/>
   </x:sheets>
 </x:workbook>
 </file>
